--- a/stl/prev_excel/results_filter_gap_excel_3_7.xlsx
+++ b/stl/prev_excel/results_filter_gap_excel_3_7.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00707247"/>
+        <fgColor rgb="00709315"/>
       </patternFill>
     </fill>
   </fills>
